--- a/data/Supplementary_Data.xlsx
+++ b/data/Supplementary_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vaidehinatu/Dropbox/babies/Manuscript/TOSEND_CommunicationsBiology/Revision/FINAL_FILES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vaidehinatu/Dropbox/babies/Manuscript/TOSEND_CommunicationsBiology/FINAL_Revision/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B775482-50D0-F442-84FE-63D80681B669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF718732-4A2F-C947-A09A-C2497D01E4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="500" windowWidth="27640" windowHeight="15860" xr2:uid="{E0A55F5F-21A7-4740-8D5C-F97595D3E8C1}"/>
+    <workbookView xWindow="540" yWindow="500" windowWidth="27640" windowHeight="15860" firstSheet="1" activeTab="9" xr2:uid="{E0A55F5F-21A7-4740-8D5C-F97595D3E8C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure1" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,11 @@
     <sheet name="Supplementary Fig 5" sheetId="8" r:id="rId7"/>
     <sheet name="Supplementary Fig 6" sheetId="9" r:id="rId8"/>
     <sheet name="Supplementary Fig 8" sheetId="10" r:id="rId9"/>
+    <sheet name="Supplementary Table 4" sheetId="12" r:id="rId10"/>
+    <sheet name="Supplementary Table 5" sheetId="13" r:id="rId11"/>
+    <sheet name="Supplementary Table 7" sheetId="14" r:id="rId12"/>
+    <sheet name="Supplementary Table 8" sheetId="15" r:id="rId13"/>
+    <sheet name="Suppplementary Table 9" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="424">
   <si>
     <t>A1</t>
   </si>
@@ -543,13 +548,3208 @@
   </si>
   <si>
     <t>R1 [sec^-1] in left hemisphere</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>(LH)</t>
+  </si>
+  <si>
+    <t>InC</t>
+  </si>
+  <si>
+    <t>P-value (LH)</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>(RH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P-value </t>
+  </si>
+  <si>
+    <t>V1d</t>
+  </si>
+  <si>
+    <r>
+      <t>5.70x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.80x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+  </si>
+  <si>
+    <t>V2d</t>
+  </si>
+  <si>
+    <r>
+      <t>7.45x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.66x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+  </si>
+  <si>
+    <t>V3d</t>
+  </si>
+  <si>
+    <r>
+      <t>1.08x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.94x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-9</t>
+    </r>
+  </si>
+  <si>
+    <t>V3a</t>
+  </si>
+  <si>
+    <r>
+      <t>9.26x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.00x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-10</t>
+    </r>
+  </si>
+  <si>
+    <t>V3b</t>
+  </si>
+  <si>
+    <r>
+      <t>9.14x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8.68x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-13</t>
+    </r>
+  </si>
+  <si>
+    <t>IPS0</t>
+  </si>
+  <si>
+    <r>
+      <t>1.95x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.31x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-11</t>
+    </r>
+  </si>
+  <si>
+    <t>IPS1</t>
+  </si>
+  <si>
+    <r>
+      <t>7.79x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.58x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-15</t>
+    </r>
+  </si>
+  <si>
+    <t>IPS2</t>
+  </si>
+  <si>
+    <r>
+      <t>1.71x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.90x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-12</t>
+    </r>
+  </si>
+  <si>
+    <t>IPS3</t>
+  </si>
+  <si>
+    <r>
+      <t>1.68x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.34x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-11</t>
+    </r>
+  </si>
+  <si>
+    <t>V1v</t>
+  </si>
+  <si>
+    <r>
+      <t>3.75x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8.11x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-9</t>
+    </r>
+  </si>
+  <si>
+    <t>V2v</t>
+  </si>
+  <si>
+    <r>
+      <t>1.25x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8.06x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-9</t>
+    </r>
+  </si>
+  <si>
+    <t>V3v</t>
+  </si>
+  <si>
+    <r>
+      <t>1.53x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.02x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-11</t>
+    </r>
+  </si>
+  <si>
+    <t>hV4</t>
+  </si>
+  <si>
+    <r>
+      <t>5.02x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.86x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.81x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.28x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.09x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8.50x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.59x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.28x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.49x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.62x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Supplementary Table 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Statistical significance and parameters of LMMs quantifying the relationship between mean T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and age in dorsal and ventral visual areas (related to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fig. 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Supplementary Fig.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>LH/RH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: left/right hemisphere; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">InC: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">intercept [sec]; Slope units: [sec]/age in days. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>= proportion of variance explained. All values survive Bonferroni correction P&lt;0.001.</t>
+    </r>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <r>
+      <t>-1.20x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.90x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.17x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.01x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.65x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.30x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.45x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.19x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.63x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.02x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.61x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8.85x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.55x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6.94x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.60x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.41x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.62x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.15x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.66x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.67x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.52x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8.84x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.00x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.67x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.42x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.06x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.88x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.70x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.35x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.33x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.89x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.43x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.65x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.08x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.40x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.14x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.92x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6.18x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-9.81x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.18x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.57x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.07x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.25x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.24x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.17x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.10x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.07x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.23x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.47x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.91x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.37x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.27x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6.01x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.06x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8.55x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.29x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.13x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.01x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.53x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.21x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.74x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Supplementary Table 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. Statistical significance and parameters of LMMs quantifying the relationship between mean MD and age in dorsal and ventral visual areas (related to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Supplementary Fig. 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>LH/RH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: left/right hemisphere; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>InC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Intercept [mm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/sec]; Slope units: [mm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/sec]/age in days. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>= proportion of variance explained. All values survive Bonferroni correction P&lt;0.001.</t>
+    </r>
+  </si>
+  <si>
+    <t>Subject ID</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Regions</t>
+  </si>
+  <si>
+    <t>22 pcw</t>
+  </si>
+  <si>
+    <t>4 M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 M </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Supplementary Table 7. Brain regions used for the transcriptomic gene analysis. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tissue samples from prenatal and postnatal human primary sensory-motor, temporal, and parietal cortices profiled by RNA sequencing. Primary motor cortex (M1, BA4), primary visual cortex (V1, BA17), primary somatosensory cortex (S1, BA1-3), primary auditory temporal cortex (A1, BA41), posterior inferior parietal cortex (IPC, BA40), posterior superior temporal cortex (STC, BA22), inferior temporal cortex (ITC, BA20); </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PCW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: post conceptual weeks, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>M:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> months.</t>
+    </r>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value Bonferroni </t>
+  </si>
+  <si>
+    <t>GO: Molecular Function</t>
+  </si>
+  <si>
+    <t>GO:0019911</t>
+  </si>
+  <si>
+    <t>structural constituent of myelin sheath</t>
+  </si>
+  <si>
+    <r>
+      <t>2.05X10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-5</t>
+    </r>
+  </si>
+  <si>
+    <t>GO:0042165</t>
+  </si>
+  <si>
+    <t>neurotransmitter binding</t>
+  </si>
+  <si>
+    <r>
+      <t>1.25x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+  </si>
+  <si>
+    <t>GO: Biological Process</t>
+  </si>
+  <si>
+    <t>GO:0098916</t>
+  </si>
+  <si>
+    <t>anterograde trans-synaptic signaling</t>
+  </si>
+  <si>
+    <r>
+      <t>3.06x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-12</t>
+    </r>
+  </si>
+  <si>
+    <t>GO:0007268</t>
+  </si>
+  <si>
+    <t>chemical synaptic transmission</t>
+  </si>
+  <si>
+    <t>GO:0099537</t>
+  </si>
+  <si>
+    <t>trans-synaptic signaling</t>
+  </si>
+  <si>
+    <r>
+      <t>3.86x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-12</t>
+    </r>
+  </si>
+  <si>
+    <t>GO:0099536</t>
+  </si>
+  <si>
+    <t>synaptic signaling</t>
+  </si>
+  <si>
+    <r>
+      <t>5.36x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-12</t>
+    </r>
+  </si>
+  <si>
+    <t>GO:0007267</t>
+  </si>
+  <si>
+    <t>cell-cell signaling</t>
+  </si>
+  <si>
+    <r>
+      <t>2.59x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-11</t>
+    </r>
+  </si>
+  <si>
+    <t>GO:0050804</t>
+  </si>
+  <si>
+    <t>modulation of chemical synaptic transmission</t>
+  </si>
+  <si>
+    <r>
+      <t>3.97x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-7</t>
+    </r>
+  </si>
+  <si>
+    <t>GO:0099177</t>
+  </si>
+  <si>
+    <t>regulation of trans-synaptic signaling</t>
+  </si>
+  <si>
+    <r>
+      <t>4.08x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-7</t>
+    </r>
+  </si>
+  <si>
+    <t>GO:0048167</t>
+  </si>
+  <si>
+    <t>regulation of synaptic plasticity</t>
+  </si>
+  <si>
+    <r>
+      <t>4.91x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-4</t>
+    </r>
+  </si>
+  <si>
+    <t>GO:0048666</t>
+  </si>
+  <si>
+    <t>neuron development</t>
+  </si>
+  <si>
+    <r>
+      <t>3.56x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-5</t>
+    </r>
+  </si>
+  <si>
+    <t>GO:1900449</t>
+  </si>
+  <si>
+    <t>regulation of glutamate receptor signaling pathway</t>
+  </si>
+  <si>
+    <t>GO:0030030</t>
+  </si>
+  <si>
+    <t>cell projection organization</t>
+  </si>
+  <si>
+    <r>
+      <t>1.84x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+  </si>
+  <si>
+    <t>GO:0030182</t>
+  </si>
+  <si>
+    <t>neuron differentiation</t>
+  </si>
+  <si>
+    <r>
+      <t>3.06x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+  </si>
+  <si>
+    <t>GO:0042552</t>
+  </si>
+  <si>
+    <t>myelination</t>
+  </si>
+  <si>
+    <r>
+      <t>4.44x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+  </si>
+  <si>
+    <t>GO:0032291</t>
+  </si>
+  <si>
+    <t>axon ensheathment in central nervous system</t>
+  </si>
+  <si>
+    <r>
+      <t>4.69x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+  </si>
+  <si>
+    <t>GO:0022010</t>
+  </si>
+  <si>
+    <t>central nervous system myelination</t>
+  </si>
+  <si>
+    <t>GO:0008366</t>
+  </si>
+  <si>
+    <t>axon ensheathment</t>
+  </si>
+  <si>
+    <r>
+      <t>4.84x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+  </si>
+  <si>
+    <t>GO:0007272</t>
+  </si>
+  <si>
+    <t>ensheathment of neurons</t>
+  </si>
+  <si>
+    <t>GO: Cellular Component</t>
+  </si>
+  <si>
+    <t>GO:0043005</t>
+  </si>
+  <si>
+    <t>neuron projection</t>
+  </si>
+  <si>
+    <r>
+      <t>2.98x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-15</t>
+    </r>
+  </si>
+  <si>
+    <t>GO:0030424</t>
+  </si>
+  <si>
+    <t>axon</t>
+  </si>
+  <si>
+    <r>
+      <t>4.20x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-14</t>
+    </r>
+  </si>
+  <si>
+    <t>GO:0036477</t>
+  </si>
+  <si>
+    <t>somatodendritic compartment</t>
+  </si>
+  <si>
+    <r>
+      <t>3.48x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-11</t>
+    </r>
+  </si>
+  <si>
+    <t>GO:0045202</t>
+  </si>
+  <si>
+    <t>synapse</t>
+  </si>
+  <si>
+    <r>
+      <t>3.96x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-9</t>
+    </r>
+  </si>
+  <si>
+    <t>GO:0043025</t>
+  </si>
+  <si>
+    <t>neuronal cell body</t>
+  </si>
+  <si>
+    <r>
+      <t>6.12x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-9</t>
+    </r>
+  </si>
+  <si>
+    <t>GO:0044297</t>
+  </si>
+  <si>
+    <t>cell body</t>
+  </si>
+  <si>
+    <r>
+      <t>4.24x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+  </si>
+  <si>
+    <t>GO:0098794</t>
+  </si>
+  <si>
+    <t>postsynapse</t>
+  </si>
+  <si>
+    <r>
+      <t>2.67x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <t>GO:0044304</t>
+  </si>
+  <si>
+    <t>main axon</t>
+  </si>
+  <si>
+    <r>
+      <t>1.09x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-5</t>
+    </r>
+  </si>
+  <si>
+    <t>GO:0098793</t>
+  </si>
+  <si>
+    <t>presynapse</t>
+  </si>
+  <si>
+    <r>
+      <t>9.14x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-5</t>
+    </r>
+  </si>
+  <si>
+    <t>GO:0097060</t>
+  </si>
+  <si>
+    <t>synaptic membrane</t>
+  </si>
+  <si>
+    <r>
+      <t>2.76x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-4</t>
+    </r>
+  </si>
+  <si>
+    <t>GO:0030425</t>
+  </si>
+  <si>
+    <t>dendrite</t>
+  </si>
+  <si>
+    <r>
+      <t>3.33x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-4</t>
+    </r>
+  </si>
+  <si>
+    <t>GO:0097447</t>
+  </si>
+  <si>
+    <t>dendritic tree</t>
+  </si>
+  <si>
+    <t>Supplementary Table 8. The gene ontology (GO) list related to Figure 3C. This GO list includes the information on the biological processes related to the 95 most differentially expressed genes, listed by statistical significance of functional enrichment analysis. Complete gene ontology lists without and with background gene sets can be found on GitHub: https://github.com/VPNL/babies_graymatter.</t>
+  </si>
+  <si>
+    <t>Inc</t>
+  </si>
+  <si>
+    <r>
+      <t>3.02x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.78x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.59x10-</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9.52x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.34x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.06x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8.07x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.04x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.43x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.26x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.21x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.14x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.69x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8.66x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.26x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.35x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.56x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.29x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.24x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.45x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.72x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.29x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.52x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.43x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.46x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.24x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.46x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.92x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.09x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.96x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9.08x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.54x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.25x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.17x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Supplementary Table 9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Statistical significance and parameters of LMMs quantifying the relationship between mean R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and age in dorsal and ventral visual areas (related to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fig. 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Supplementary Fig.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">LH/RH: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">left/right hemisphere; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Inc:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Intercept [s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>].</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Slope units: [msec</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">]/age in days. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>= proportion of variance explained. All values survive Bonferroni correction P&lt;0.001.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -572,6 +3772,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -581,7 +3836,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -665,11 +3920,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -697,6 +4039,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -711,6 +4100,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1028,7 +4438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066EF6AA-4518-5243-BC02-15714DB478D9}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1:L1"/>
     </sheetView>
   </sheetViews>
@@ -1038,39 +4448,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="H1" s="15" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="H1" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>156</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -2040,6 +5450,2956 @@
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22585B86-C417-4144-92A7-4FA04A70D8BB}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
+      <c r="B3" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="17">
+        <v>-2E-3</v>
+      </c>
+      <c r="C4" s="17">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0.61</v>
+      </c>
+      <c r="F4" s="17">
+        <v>-2E-3</v>
+      </c>
+      <c r="G4" s="17">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="I4" s="20">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="17">
+        <v>-2.3E-3</v>
+      </c>
+      <c r="C5" s="17">
+        <v>2.08</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0.59</v>
+      </c>
+      <c r="F5" s="17">
+        <v>-2.3E-3</v>
+      </c>
+      <c r="G5" s="17">
+        <v>2.12</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="I5" s="20">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="17">
+        <v>-2.5999999999999999E-3</v>
+      </c>
+      <c r="C6" s="17">
+        <v>2.17</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0.79</v>
+      </c>
+      <c r="F6" s="17">
+        <v>-2.7000000000000001E-3</v>
+      </c>
+      <c r="G6" s="17">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="I6" s="20">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="17">
+        <v>-2.7000000000000001E-3</v>
+      </c>
+      <c r="C7" s="17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.82</v>
+      </c>
+      <c r="F7" s="17">
+        <v>-2.7000000000000001E-3</v>
+      </c>
+      <c r="G7" s="17">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="I7" s="20">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="17">
+        <v>-2.3E-3</v>
+      </c>
+      <c r="C8" s="17">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="F8" s="17">
+        <v>-2.8999999999999998E-3</v>
+      </c>
+      <c r="G8" s="17">
+        <v>2.23</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="I8" s="20">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="17">
+        <v>-2.8999999999999998E-3</v>
+      </c>
+      <c r="C9" s="17">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0.87</v>
+      </c>
+      <c r="F9" s="17">
+        <v>-2.8999999999999998E-3</v>
+      </c>
+      <c r="G9" s="17">
+        <v>2.23</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="I9" s="20">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="17">
+        <v>-2.8E-3</v>
+      </c>
+      <c r="C10" s="17">
+        <v>2.27</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0.91</v>
+      </c>
+      <c r="F10" s="17">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="G10" s="17">
+        <v>2.29</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" s="20">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="17">
+        <v>-2.5999999999999999E-3</v>
+      </c>
+      <c r="C11" s="17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0.94</v>
+      </c>
+      <c r="F11" s="17">
+        <v>-2.5000000000000001E-3</v>
+      </c>
+      <c r="G11" s="17">
+        <v>2.27</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="I11" s="20">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="17">
+        <v>-2.5000000000000001E-3</v>
+      </c>
+      <c r="C12" s="17">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="F12" s="17">
+        <v>-2.5000000000000001E-3</v>
+      </c>
+      <c r="G12" s="17">
+        <v>2.29</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="I12" s="20">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="17">
+        <v>-1.5E-3</v>
+      </c>
+      <c r="C16" s="17">
+        <v>1.96</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0.54</v>
+      </c>
+      <c r="F16" s="17">
+        <v>-1.9E-3</v>
+      </c>
+      <c r="G16" s="17">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="I16" s="20">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" s="17">
+        <v>-2.2000000000000001E-3</v>
+      </c>
+      <c r="C17" s="17">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E17" s="20">
+        <v>0.82</v>
+      </c>
+      <c r="F17" s="17">
+        <v>-2.0999999999999999E-3</v>
+      </c>
+      <c r="G17" s="17">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="I17" s="20">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" s="17">
+        <v>-2.5999999999999999E-3</v>
+      </c>
+      <c r="C18" s="17">
+        <v>2.17</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="F18" s="17">
+        <v>-2.3999999999999998E-3</v>
+      </c>
+      <c r="G18" s="17">
+        <v>2.14</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I18" s="20">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" s="17">
+        <v>-2.5999999999999999E-3</v>
+      </c>
+      <c r="C19" s="17">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E19" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="F19" s="17">
+        <v>-2.3999999999999998E-3</v>
+      </c>
+      <c r="G19" s="17">
+        <v>2.15</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="I19" s="20">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="17">
+        <v>-2.7000000000000001E-3</v>
+      </c>
+      <c r="C20" s="17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="F20" s="17">
+        <v>-2.7000000000000001E-3</v>
+      </c>
+      <c r="G20" s="17">
+        <v>2.21</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="I20" s="20">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="17">
+        <v>-2.7000000000000001E-3</v>
+      </c>
+      <c r="C21" s="17">
+        <v>2.21</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E21" s="20">
+        <v>0.93</v>
+      </c>
+      <c r="F21" s="17">
+        <v>-2.8E-3</v>
+      </c>
+      <c r="G21" s="17">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="I21" s="20">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="17">
+        <v>-2.5000000000000001E-3</v>
+      </c>
+      <c r="C22" s="17">
+        <v>2.19</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E22" s="20">
+        <v>0.81</v>
+      </c>
+      <c r="F22" s="17">
+        <v>-2.5999999999999999E-3</v>
+      </c>
+      <c r="G22" s="17">
+        <v>2.19</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="I22" s="20">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="17">
+        <v>-2.3E-3</v>
+      </c>
+      <c r="C23" s="17">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E23" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="F23" s="17">
+        <v>-2.5000000000000001E-3</v>
+      </c>
+      <c r="G23" s="17">
+        <v>2.21</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="I23" s="20">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A25:I25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738BAB43-1C28-154E-9C66-EE25AAD278C6}">
+  <dimension ref="B2:J27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="38"/>
+      <c r="C4" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1.2019999999999999E-3</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0.82</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="H5" s="17">
+        <v>1.1850000000000001E-3</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="J5" s="20">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1.2390000000000001E-3</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0.84</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6" s="17">
+        <v>1.2110000000000001E-3</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="J6" s="20">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1.253E-3</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0.72</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H7" s="17">
+        <v>1.2390000000000001E-3</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="J7" s="20">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1.2509999999999999E-3</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0.77</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="H8" s="17">
+        <v>1.255E-3</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="J8" s="20">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1.263E-3</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="H9" s="17">
+        <v>1.2639999999999999E-3</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="J9" s="20">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1.266E-3</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0.92</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="H10" s="17">
+        <v>1.281E-3</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="J10" s="20">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1.299E-3</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0.89</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="H11" s="17">
+        <v>1.2899999999999999E-3</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J11" s="20">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1.3339999999999999E-3</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="F12" s="20">
+        <v>0.82</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="H12" s="17">
+        <v>1.3209999999999999E-3</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="J12" s="20">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" s="17">
+        <v>1.3029999999999999E-3</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0.76</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="H13" s="17">
+        <v>1.3010000000000001E-3</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="J13" s="20">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B15" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="38"/>
+      <c r="C16" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" s="17">
+        <v>1.212E-3</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="F17" s="20">
+        <v>0.78</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="H17" s="17">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="J17" s="20">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D18" s="17">
+        <v>1.2648E-3</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="F18" s="20">
+        <v>0.46</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="H18" s="17">
+        <v>1.2390000000000001E-3</v>
+      </c>
+      <c r="I18" s="17">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="J18" s="20">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="D19" s="17">
+        <v>1.2539999999999999E-3</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="F19" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="H19" s="17">
+        <v>1.2210000000000001E-3</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="J19" s="20">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D20" s="17">
+        <v>1.2470000000000001E-3</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="F20" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="H20" s="17">
+        <v>1.206E-3</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="J20" s="20">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="17">
+        <v>1.256E-3</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="F21" s="20">
+        <v>0.89</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="H21" s="17">
+        <v>1.2520000000000001E-3</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="J21" s="20">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" s="17">
+        <v>1.2669999999999999E-3</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="F22" s="20">
+        <v>0.92</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="H22" s="17">
+        <v>1.2509999999999999E-3</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="J22" s="20">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="D23" s="17">
+        <v>1.2520000000000001E-3</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="F23" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="H23" s="17">
+        <v>1.253E-3</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="J23" s="20">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="D24" s="17">
+        <v>1.2639999999999999E-3</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="F24" s="20">
+        <v>0.86</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="H24" s="17">
+        <v>1.2639999999999999E-3</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="J24" s="20">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+    </row>
+    <row r="27" spans="2:10" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B26:J27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E13C1B-878C-0F45-BD29-6BF5F76C80FA}">
+  <dimension ref="B1:F47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:F47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="143" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B47:F47"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37614A8D-747A-3640-A868-4FC18735B740}">
+  <dimension ref="B1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="35.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B37:E37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0617DB95-7356-4D42-8257-1545ADFBC986}">
+  <dimension ref="B1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B2" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="38"/>
+      <c r="C3" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="20">
+        <v>0.62</v>
+      </c>
+      <c r="D4" s="20">
+        <v>0.49</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="F4" s="20">
+        <v>0.65</v>
+      </c>
+      <c r="G4" s="20">
+        <v>0.59</v>
+      </c>
+      <c r="H4" s="20">
+        <v>0.49</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="J4" s="20">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0.64</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0.48</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0.61</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.63</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0.46</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="J5" s="20">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0.69</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0.84</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.73</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="J6" s="20">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0.72</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0.44</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0.87</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0.73</v>
+      </c>
+      <c r="H7" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="J7" s="20">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0.86</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0.78</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0.44</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="J8" s="20">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.43</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0.93</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0.76</v>
+      </c>
+      <c r="H9" s="20">
+        <v>0.44</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="J9" s="20">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0.43</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0.92</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0.77</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0.42</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="J10" s="20">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0.63</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0.42</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0.95</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0.64</v>
+      </c>
+      <c r="H11" s="20">
+        <v>0.43</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="J11" s="20">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="41">
+        <v>0.62</v>
+      </c>
+      <c r="D12" s="41">
+        <v>0.43</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="F12" s="41">
+        <v>0.92</v>
+      </c>
+      <c r="G12" s="41">
+        <v>0.62</v>
+      </c>
+      <c r="H12" s="41">
+        <v>0.43</v>
+      </c>
+      <c r="I12" s="41" t="s">
+        <v>406</v>
+      </c>
+      <c r="J12" s="41">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="38"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+    </row>
+    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B15" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="38"/>
+      <c r="C16" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="20">
+        <v>0.46</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="F17" s="20">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G17" s="20">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H17" s="20">
+        <v>0.49</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="J17" s="20">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="20">
+        <v>0.63</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0.48</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="F18" s="20">
+        <v>0.88</v>
+      </c>
+      <c r="G18" s="20">
+        <v>0.59</v>
+      </c>
+      <c r="H18" s="20">
+        <v>0.47</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="J18" s="20">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="20">
+        <v>0.72</v>
+      </c>
+      <c r="D19" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="F19" s="20">
+        <v>0.89</v>
+      </c>
+      <c r="G19" s="20">
+        <v>0.67</v>
+      </c>
+      <c r="H19" s="20">
+        <v>0.46</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="J19" s="20">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="F20" s="20">
+        <v>0.81</v>
+      </c>
+      <c r="G20" s="20">
+        <v>0.66</v>
+      </c>
+      <c r="H20" s="20">
+        <v>0.46</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="J20" s="20">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="20">
+        <v>0.71</v>
+      </c>
+      <c r="D21" s="20">
+        <v>0.44</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="F21" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="G21" s="20">
+        <v>0.73</v>
+      </c>
+      <c r="H21" s="20">
+        <v>0.44</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="J21" s="20">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="20">
+        <v>0.73</v>
+      </c>
+      <c r="D22" s="20">
+        <v>0.44</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="F22" s="20">
+        <v>0.93</v>
+      </c>
+      <c r="G22" s="20">
+        <v>0.76</v>
+      </c>
+      <c r="H22" s="20">
+        <v>0.44</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="J22" s="20">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="20">
+        <v>0.64</v>
+      </c>
+      <c r="D23" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="F23" s="20">
+        <v>0.87</v>
+      </c>
+      <c r="G23" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="H23" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="J23" s="20">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="20">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D24" s="20">
+        <v>0.44</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="F24" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="G24" s="20">
+        <v>0.65</v>
+      </c>
+      <c r="H24" s="20">
+        <v>0.44</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="J24" s="20">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2058,29 +8418,29 @@
         <v>160</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
     </row>
     <row r="2" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -17379,30 +23739,30 @@
       <c r="B1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
       <c r="M1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
@@ -17784,24 +24144,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="2:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -18350,24 +24710,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -18883,29 +25243,29 @@
       <c r="A1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
     </row>
     <row r="2" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -20787,56 +27147,56 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
     </row>
     <row r="3" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -22626,29 +28986,29 @@
       <c r="A34" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="15" t="s">
+      <c r="M34" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
     </row>
     <row r="35" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
@@ -24416,29 +30776,29 @@
       <c r="A1" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
     </row>
     <row r="2" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
@@ -26304,29 +32664,29 @@
       <c r="A39" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="19"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="36"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
-      <c r="M39" s="17" t="s">
+      <c r="M39" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="19"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="36"/>
     </row>
     <row r="40" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
